--- a/JibeSmokeTest2/Excel/ReadWrite.xlsx
+++ b/JibeSmokeTest2/Excel/ReadWrite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="685" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="685" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="2" r:id="rId1"/>
@@ -2579,9 +2579,6 @@
     <t>arati</t>
   </si>
   <si>
-    <t>jibe@1234</t>
-  </si>
-  <si>
     <t>207.0</t>
   </si>
   <si>
@@ -2601,6 +2598,9 @@
   </si>
   <si>
     <t xml:space="preserve">  Travel Requests </t>
+  </si>
+  <si>
+    <t>Jibe@12345</t>
   </si>
 </sst>
 </file>
@@ -3388,7 +3388,7 @@
         <v>313</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E7" t="s">
         <v>726</v>
@@ -3735,7 +3735,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3822,10 +3822,10 @@
         <v>330</v>
       </c>
       <c r="D5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3842,7 +3842,7 @@
         <v>331</v>
       </c>
       <c r="E6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3856,10 +3856,10 @@
         <v>332</v>
       </c>
       <c r="D7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3893,7 +3893,7 @@
         <v>331</v>
       </c>
       <c r="E9" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -3906,8 +3906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4208,7 +4208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4235,7 +4235,7 @@
         <v>849</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="C2" t="s">
         <v>805</v>
